--- a/src/test/resources/Amazon_Data.xlsx
+++ b/src/test/resources/Amazon_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RISING\IdeaProjects\Amazon_Sprint2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A86BE3-D677-4464-8077-B619389D63BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E8DE02-5DEF-4861-AE3F-FB6A790CB58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE9A49D7-EEEA-4BEC-9BD0-81296752D769}"/>
+    <workbookView xWindow="2880" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{DE9A49D7-EEEA-4BEC-9BD0-81296752D769}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,23 +38,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve"> Verify the user is able to enter valid Username and click next</t>
-  </si>
-  <si>
     <t>scenario</t>
   </si>
   <si>
     <t>TypeValue</t>
   </si>
   <si>
-    <t>~7905897319</t>
+    <t>pnarsasingh@gmail.com</t>
+  </si>
+  <si>
+    <t>Verify the user is able to enter valid Username and click next</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +65,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,16 +92,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,33 +420,36 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="52.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="2" max="3" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8ECE484A-52A0-40F6-9A7B-9484D902EA50}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/Amazon_Data.xlsx
+++ b/src/test/resources/Amazon_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RISING\IdeaProjects\Amazon_Sprint2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E8DE02-5DEF-4861-AE3F-FB6A790CB58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B041DE5B-D012-47F1-87DE-D7BDD799BB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{DE9A49D7-EEEA-4BEC-9BD0-81296752D769}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>scenario</t>
   </si>
@@ -48,6 +48,21 @@
   </si>
   <si>
     <t>Verify the user is able to enter valid Username and click next</t>
+  </si>
+  <si>
+    <t>User enter Invalid username and click next</t>
+  </si>
+  <si>
+    <t>aaabbbccc</t>
+  </si>
+  <si>
+    <t>User enter Valid username and Invalid password</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>aaa123rps</t>
   </si>
 </sst>
 </file>
@@ -417,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FE392F-82EA-4C22-86C0-ECE88F519E11}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -429,20 +444,42 @@
     <col min="2" max="3" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
